--- a/Exam1.xlsx
+++ b/Exam1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_alldata\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABC39F3-15B4-4DCE-819B-D951D326CEBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B51D34-9252-4916-8881-E2426DF26B11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="2" xr2:uid="{5B3F4F81-9E2D-49F3-AED2-8DB09F6C1BAA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{5B3F4F81-9E2D-49F3-AED2-8DB09F6C1BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,219 @@
   </cellStyles>
   <dxfs count="67">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -578,14 +790,52 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -602,14 +852,13 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -626,14 +875,13 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -648,33 +896,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -684,7 +905,7 @@
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -707,7 +928,7 @@
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -730,7 +951,7 @@
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -753,7 +974,7 @@
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -776,7 +997,7 @@
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -791,6 +1012,32 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -837,6 +1084,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -899,6 +1147,32 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -971,280 +1245,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1353,119 +1353,119 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51359E13-3DE0-4772-BE60-1490672334D6}" name="Table1" displayName="Table1" ref="A1:X21" totalsRowShown="0">
   <autoFilter ref="A1:X21" xr:uid="{A4F59EBB-03E1-46E5-8065-4C9811818A47}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{78ACFEED-ED53-4A44-9FCE-3E3F36BCBD07}" name="Student ID" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{EF20512E-B193-4B7F-AA55-4485DFB12C78}" name="Name" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{7DB20CD8-BD65-48D6-8731-E5F3597168D4}" name="Maths" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{3CC4B4DA-DA9F-459A-95D2-66AB8EED516E}" name="Science" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{F7606102-4754-4F76-993F-CA0573D05FD0}" name="English" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{66ACF813-ACB1-429A-B777-3100A54A4F60}" name="Enrollment Date" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{06D7647D-5375-4275-9C8B-DAB9AD9E214B}" name="Total Score" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{78ACFEED-ED53-4A44-9FCE-3E3F36BCBD07}" name="Student ID" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{EF20512E-B193-4B7F-AA55-4485DFB12C78}" name="Name" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{7DB20CD8-BD65-48D6-8731-E5F3597168D4}" name="Maths" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{3CC4B4DA-DA9F-459A-95D2-66AB8EED516E}" name="Science" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{F7606102-4754-4F76-993F-CA0573D05FD0}" name="English" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{66ACF813-ACB1-429A-B777-3100A54A4F60}" name="Enrollment Date" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{06D7647D-5375-4275-9C8B-DAB9AD9E214B}" name="Total Score" dataDxfId="60">
       <calculatedColumnFormula>C2+D2+E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E875E3F4-A4A3-4070-A042-82911D1F8A0D}" name="Absolute" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{2962E836-C0F5-4540-9798-800C95E97F29}" name="Percentage" dataDxfId="60">
+    <tableColumn id="8" xr3:uid="{E875E3F4-A4A3-4070-A042-82911D1F8A0D}" name="Absolute" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{2962E836-C0F5-4540-9798-800C95E97F29}" name="Percentage" dataDxfId="58">
       <calculatedColumnFormula>G2/$H$2*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9E10CCD6-3049-445E-A59D-CB9041802268}" name="Grade" dataDxfId="59">
+    <tableColumn id="10" xr3:uid="{9E10CCD6-3049-445E-A59D-CB9041802268}" name="Grade" dataDxfId="57">
       <calculatedColumnFormula>IF(G2&gt;=250,"A",IF(G2&gt;=200,"B",IF(G2&gt;=150,"C","F")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{40D36A09-B4F1-4848-B36C-98551BD2A1AE}" name="Above 80 in M &amp; S" dataDxfId="58">
+    <tableColumn id="11" xr3:uid="{40D36A09-B4F1-4848-B36C-98551BD2A1AE}" name="Above 80 in M &amp; S" dataDxfId="56">
       <calculatedColumnFormula>IF(AND(C2&gt;80,D2&gt;80),"Yes","No")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C48610E5-471F-4E9A-869C-1FA8FFCD843F}" name="Above 50 in Math" dataDxfId="57">
+    <tableColumn id="12" xr3:uid="{C48610E5-471F-4E9A-869C-1FA8FFCD843F}" name="Above 50 in Math" dataDxfId="55">
       <calculatedColumnFormula>COUNTIFS(C2:C21,"&gt;50")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{96C83A5E-E02E-439E-83FC-9B9AF574F6BD}" name="Scored above 60" dataDxfId="56">
+    <tableColumn id="13" xr3:uid="{96C83A5E-E02E-439E-83FC-9B9AF574F6BD}" name="Scored above 60" dataDxfId="54">
       <calculatedColumnFormula>COUNTIFS(C2:E21,"&gt;60")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{27351886-8EC9-4718-82CF-FE65BE435AB4}" name="StudentID" dataDxfId="55"/>
-    <tableColumn id="15" xr3:uid="{252065B2-781B-4CCA-823E-DB680B28F66C}" name="Student Name" dataDxfId="54"/>
-    <tableColumn id="16" xr3:uid="{7CAF6E4A-515D-4087-BB77-AAC154281AE7}" name="LEFT and FIND" dataDxfId="53"/>
-    <tableColumn id="17" xr3:uid="{9DB87187-CDAF-4FE7-8BE2-AED2352B799D}" name="UPPERCASE" dataDxfId="52">
+    <tableColumn id="14" xr3:uid="{27351886-8EC9-4718-82CF-FE65BE435AB4}" name="StudentID" dataDxfId="53"/>
+    <tableColumn id="15" xr3:uid="{252065B2-781B-4CCA-823E-DB680B28F66C}" name="Student Name" dataDxfId="52"/>
+    <tableColumn id="16" xr3:uid="{7CAF6E4A-515D-4087-BB77-AAC154281AE7}" name="LEFT and FIND" dataDxfId="51"/>
+    <tableColumn id="17" xr3:uid="{9DB87187-CDAF-4FE7-8BE2-AED2352B799D}" name="UPPERCASE" dataDxfId="50">
       <calculatedColumnFormula>UPPER(B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{1CC7AA49-5DA8-4788-AA16-98D75761320D}" name="LOWERCASE" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{8FAE84D4-CFC0-46AA-8D31-1D91AAF895CB}" name="INDIRECT" dataDxfId="50">
+    <tableColumn id="18" xr3:uid="{1CC7AA49-5DA8-4788-AA16-98D75761320D}" name="LOWERCASE" dataDxfId="49"/>
+    <tableColumn id="19" xr3:uid="{8FAE84D4-CFC0-46AA-8D31-1D91AAF895CB}" name="INDIRECT" dataDxfId="48">
       <calculatedColumnFormula>INDIRECT("B3")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{CD4AF4BD-5311-44DE-9961-E89EA87BF609}" name="DATE and TIME" dataDxfId="49"/>
-    <tableColumn id="21" xr3:uid="{B4E074F9-E8B2-427D-93DE-AB374227F9F8}" name="ROUND" dataDxfId="48"/>
-    <tableColumn id="22" xr3:uid="{A8FA1199-339E-4FE5-BF4B-DE5B40A07274}" name="CEILING" dataDxfId="47"/>
-    <tableColumn id="23" xr3:uid="{9E47966E-C4E2-4AF5-8048-02DDDBF4E0AC}" name="FLOOR" dataDxfId="46"/>
-    <tableColumn id="24" xr3:uid="{B5ED0135-E387-4D82-8E6F-5834681E0814}" name="FILTER" dataDxfId="45"/>
+    <tableColumn id="20" xr3:uid="{CD4AF4BD-5311-44DE-9961-E89EA87BF609}" name="DATE and TIME" dataDxfId="47"/>
+    <tableColumn id="21" xr3:uid="{B4E074F9-E8B2-427D-93DE-AB374227F9F8}" name="ROUND" dataDxfId="46"/>
+    <tableColumn id="22" xr3:uid="{A8FA1199-339E-4FE5-BF4B-DE5B40A07274}" name="CEILING" dataDxfId="45"/>
+    <tableColumn id="23" xr3:uid="{9E47966E-C4E2-4AF5-8048-02DDDBF4E0AC}" name="FLOOR" dataDxfId="44"/>
+    <tableColumn id="24" xr3:uid="{B5ED0135-E387-4D82-8E6F-5834681E0814}" name="FILTER" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2EF757D-FC20-4A8D-908C-D21409E780A7}" name="Table2" displayName="Table2" ref="A1:V21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2EF757D-FC20-4A8D-908C-D21409E780A7}" name="Table2" displayName="Table2" ref="A1:V21" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:V21" xr:uid="{D146DB42-00CB-4047-AB53-B808407CA9E2}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{0C8EBB9C-3AB6-4B0C-A833-DEB98A5FFB5D}" name="Sales ID" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{85ACA804-8911-4C2F-8EE1-AC18A595E1BF}" name="Product" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{68139435-E046-4A32-8298-4DF78F074D54}" name="Region" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{8CB6CA74-B0FA-4227-9960-3618132A9C07}" name="Salesperson" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{AF905ED9-0DC1-4107-9727-5815CC1E02CF}" name="Amount" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{96A67778-174D-418B-8ECA-DA7340D832A8}" name="Date" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{71F96207-0783-4E5E-848C-C29D504BBC0D}" name="Discount%" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{0C8EBB9C-3AB6-4B0C-A833-DEB98A5FFB5D}" name="Sales ID" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{85ACA804-8911-4C2F-8EE1-AC18A595E1BF}" name="Product" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{68139435-E046-4A32-8298-4DF78F074D54}" name="Region" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{8CB6CA74-B0FA-4227-9960-3618132A9C07}" name="Salesperson" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{AF905ED9-0DC1-4107-9727-5815CC1E02CF}" name="Amount" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{96A67778-174D-418B-8ECA-DA7340D832A8}" name="Date" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{71F96207-0783-4E5E-848C-C29D504BBC0D}" name="Discount%" dataDxfId="34">
       <calculatedColumnFormula>IF(E2&gt;=40000,20%,IF(E2&gt;=20000,10%,5%))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{73043C56-9A9C-4004-8239-0AE62B93DA6E}" name="Amount2" dataDxfId="35">
+    <tableColumn id="8" xr3:uid="{73043C56-9A9C-4004-8239-0AE62B93DA6E}" name="Amount2" dataDxfId="33">
       <calculatedColumnFormula>E2*G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{318DD497-1D9C-4569-B0CD-68E9E8E73504}" name="Discount Eligible" dataDxfId="34">
+    <tableColumn id="9" xr3:uid="{318DD497-1D9C-4569-B0CD-68E9E8E73504}" name="Discount Eligible" dataDxfId="32">
       <calculatedColumnFormula>IF(OR(E2&gt;=30000,C2="North"),"Eligible","Not Eligible")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5F7CCBB6-4AB7-4295-8912-3423A16A354C}" name="Sumifs" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{869FC36C-F54E-42B2-B5A0-AD148C42957C}" name="Product Code" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{1708E633-74A8-405D-9F2F-0A0D270D0E57}" name="Product Price" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{47EBB747-CFAB-488B-A182-0A2E0AB3757E}" name="Date2" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{DC93815F-F902-4F57-992E-BCC717D797F5}" name="INDEX+MATCH" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{C54BD86C-BD50-426E-ADEF-967592BBD8BF}" name="LEFT and FIND" dataDxfId="29">
+    <tableColumn id="10" xr3:uid="{5F7CCBB6-4AB7-4295-8912-3423A16A354C}" name="Sumifs" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{869FC36C-F54E-42B2-B5A0-AD148C42957C}" name="Product Code" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{1708E633-74A8-405D-9F2F-0A0D270D0E57}" name="Product Price" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{47EBB747-CFAB-488B-A182-0A2E0AB3757E}" name="Date2" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{DC93815F-F902-4F57-992E-BCC717D797F5}" name="INDEX+MATCH" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{C54BD86C-BD50-426E-ADEF-967592BBD8BF}" name="LEFT and FIND" dataDxfId="26">
       <calculatedColumnFormula>LEFT(D2,FIND(" ",D2)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{5E6AA0E8-64A1-4E0D-89C2-7F26AEA29413}" name="UPPERCASE" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{095F6C74-2F08-429C-B046-0D3B8AC169C8}" name="LOWERCASE" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{01D6A7D2-5309-4E35-9078-EED492326169}" name="XLOOKUP" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{C5709F73-1E5E-4B61-BCE9-5519BE366B66}" name="XMATCH" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{2DD0F0AC-558D-4BBB-AA8F-EE590D900EF2}" name="INDIRECT" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{D254CA38-A1D2-4A82-BE8A-CD14C8DCEA2A}" name="OFFSET" dataDxfId="23">
+    <tableColumn id="16" xr3:uid="{5E6AA0E8-64A1-4E0D-89C2-7F26AEA29413}" name="UPPERCASE" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{095F6C74-2F08-429C-B046-0D3B8AC169C8}" name="LOWERCASE" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{01D6A7D2-5309-4E35-9078-EED492326169}" name="XLOOKUP" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{C5709F73-1E5E-4B61-BCE9-5519BE366B66}" name="XMATCH" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{2DD0F0AC-558D-4BBB-AA8F-EE590D900EF2}" name="INDIRECT" dataDxfId="21"/>
+    <tableColumn id="21" xr3:uid="{D254CA38-A1D2-4A82-BE8A-CD14C8DCEA2A}" name="OFFSET" dataDxfId="20">
       <calculatedColumnFormula>SUM(OFFSET(E2,COUNT(E:E)-5,0,5,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{DF0C4DFD-C55F-4102-804F-0D2EB8D52837}" name="DATE and TIME" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{DF0C4DFD-C55F-4102-804F-0D2EB8D52837}" name="DATE and TIME" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C8866F67-A1E1-4601-88BB-15578630FDC4}" name="Table3" displayName="Table3" ref="A1:Q21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C8866F67-A1E1-4601-88BB-15578630FDC4}" name="Table3" displayName="Table3" ref="A1:Q21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:Q21" xr:uid="{6AE1F544-EAC7-40DD-AD48-10FE61AE6EC9}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{C004965F-FE82-4DE9-B693-E8597B771008}" name="Employee ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A757A2B7-BF48-40DF-9827-26951F0C434E}" name="Name" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{813E77FB-802E-47D5-A303-C7EE7AEF1CBE}" name="Department" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{B1E6986B-D3A2-4FD6-901C-F3165A5B9D9D}" name="Salary" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{B4E06B8E-1BF0-4FA9-8AC7-3E797B512FAE}" name="Joining Date" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{AE2D725D-1214-4C2C-B105-A7861E699A14}" name="EmployeeID" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{E490D417-8402-456A-98A9-5A63744421C0}" name="Department/Salary" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{5722E762-AA2A-40BE-B0BF-15B0368C8B6C}" name="Details" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{C004965F-FE82-4DE9-B693-E8597B771008}" name="Employee ID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A757A2B7-BF48-40DF-9827-26951F0C434E}" name="Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{813E77FB-802E-47D5-A303-C7EE7AEF1CBE}" name="Department" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{B1E6986B-D3A2-4FD6-901C-F3165A5B9D9D}" name="Salary" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{B4E06B8E-1BF0-4FA9-8AC7-3E797B512FAE}" name="Joining Date" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{AE2D725D-1214-4C2C-B105-A7861E699A14}" name="EmployeeID" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{E490D417-8402-456A-98A9-5A63744421C0}" name="Department/Salary" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{5722E762-AA2A-40BE-B0BF-15B0368C8B6C}" name="Details" dataDxfId="9">
       <calculatedColumnFormula>INDEX(A2:E21, MATCH(F2, A2:A21, 0), MATCH(G2,A1:E1,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9E4E4819-695C-4703-B16C-5AB43287D4E9}" name="LEFT and FIND" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{190721A7-126B-46BC-A666-FC342D97C283}" name="UPPERCASE" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{D0F1823D-4AE5-4990-B2F7-CE52C36B8C9A}" name="LOWERCASE" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{788868D2-2FAB-4283-91CE-BB2B16E234A8}" name="XLOOKUP" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{F9D115B0-29CE-4664-8CE6-953F5CBCAB0F}" name="INDIRECT" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{34B91B01-ECE6-4BDC-A1B9-35F1044850CD}" name="DATE and TIME" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{FD0264DA-CB7B-40B9-B600-AA6533BEEA6F}" name="DAY" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{9E4E4819-695C-4703-B16C-5AB43287D4E9}" name="LEFT and FIND" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{190721A7-126B-46BC-A666-FC342D97C283}" name="UPPERCASE" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{D0F1823D-4AE5-4990-B2F7-CE52C36B8C9A}" name="LOWERCASE" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{788868D2-2FAB-4283-91CE-BB2B16E234A8}" name="XLOOKUP" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F9D115B0-29CE-4664-8CE6-953F5CBCAB0F}" name="INDIRECT" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{34B91B01-ECE6-4BDC-A1B9-35F1044850CD}" name="DATE and TIME" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{FD0264DA-CB7B-40B9-B600-AA6533BEEA6F}" name="DAY" dataDxfId="2">
       <calculatedColumnFormula>DAY(Table3[Joining Date])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{79693141-7D6B-4902-98D3-F7955B206750}" name="MONTH" dataDxfId="4">
+    <tableColumn id="16" xr3:uid="{79693141-7D6B-4902-98D3-F7955B206750}" name="MONTH" dataDxfId="1">
       <calculatedColumnFormula>MONTH(Table3[Joining Date])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{20545079-60D2-42D0-A068-64D03A2037FC}" name="YEAR" dataDxfId="3">
+    <tableColumn id="17" xr3:uid="{20545079-60D2-42D0-A068-64D03A2037FC}" name="YEAR" dataDxfId="0">
       <calculatedColumnFormula>YEAR(Table3[Joining Date])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1772,7 +1772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057AC0BF-202D-4C0F-96AA-7A26E218B3D4}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="93" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="88" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1895,11 +1895,11 @@
         <v>No</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L21" si="0">COUNTIFS(C2:C21,"&gt;50")</f>
+        <f t="shared" ref="L2" si="0">COUNTIFS(C2:C21,"&gt;50")</f>
         <v>19</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M21" si="1">COUNTIFS(C2:E21,"&gt;60")</f>
+        <f t="shared" ref="M2" si="1">COUNTIFS(C2:E21,"&gt;60")</f>
         <v>40</v>
       </c>
       <c r="N2" s="3">
@@ -1914,7 +1914,7 @@
         <v>Student</v>
       </c>
       <c r="Q2" s="3" t="str">
-        <f t="shared" ref="Q2:Q21" si="2">UPPER(B2)</f>
+        <f t="shared" ref="Q2" si="2">UPPER(B2)</f>
         <v>STUDENT 1</v>
       </c>
       <c r="R2" s="3" t="str">
@@ -1922,7 +1922,7 @@
         <v>student 1</v>
       </c>
       <c r="S2" s="5" t="str">
-        <f t="shared" ref="S2:S21" ca="1" si="3">INDIRECT("B3")</f>
+        <f t="shared" ref="S2" ca="1" si="3">INDIRECT("B3")</f>
         <v>Student 2</v>
       </c>
       <c r="T2" s="3" t="s">
@@ -3487,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC8B7AE-BAC0-42F2-A9CA-C64748B3870D}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3617,7 +3617,7 @@
         <v>19746</v>
       </c>
       <c r="O2" s="3" t="str">
-        <f t="shared" ref="O2:O21" si="0">LEFT(D2,FIND(" ",D2)-1)</f>
+        <f t="shared" ref="O2" si="0">LEFT(D2,FIND(" ",D2)-1)</f>
         <v>Person</v>
       </c>
       <c r="P2" s="3" t="str">
@@ -3639,7 +3639,7 @@
         <v>Keyboard</v>
       </c>
       <c r="U2" s="5">
-        <f t="shared" ref="U2:U21" ca="1" si="1">SUM(OFFSET(E2,COUNT(E:E)-5,0,5,1))</f>
+        <f t="shared" ref="U2" ca="1" si="1">SUM(OFFSET(E2,COUNT(E:E)-5,0,5,1))</f>
         <v>149698</v>
       </c>
       <c r="V2" s="3" t="s">
@@ -4521,8 +4521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67143512-6B9D-48E3-9459-B0C4A9CD9DC7}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="86" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4608,7 +4608,7 @@
         <v>61</v>
       </c>
       <c r="H2" s="2" t="str">
-        <f t="shared" ref="H2:H21" si="0">INDEX(A2:E21, MATCH(F2, A2:A21, 0), MATCH(G2,A1:E1,0))</f>
+        <f t="shared" ref="H2" si="0">INDEX(A2:E21, MATCH(F2, A2:A21, 0), MATCH(G2,A1:E1,0))</f>
         <v>Finance</v>
       </c>
       <c r="I2" s="2" t="str">
